--- a/docs/assets/furnstats.xlsx
+++ b/docs/assets/furnstats.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C37B2886-F544-4116-B920-9B807D9F7C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reinweise/HOOTSMAN/vscode/afk.GG/docs/assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC45F634-E3FD-714E-BC00-4D2F22457CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="100" windowWidth="35380" windowHeight="23120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="178">
   <si>
     <t>Hero</t>
   </si>
@@ -521,23 +524,53 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>Fields marked in green indicate the additional value that the furniture will give after buffs. However, it is worth noting that the additional buffs are slightly weaker than this original value</t>
-  </si>
-  <si>
-    <t>For example, Athelia in its basic stats from one +3 furniture can draw 3.2% ATK, the same bonus to ATK after additional buffs is only 2.4%.</t>
-  </si>
-  <si>
-    <t>by: Arkadiano</t>
-  </si>
-  <si>
-    <t>ID: 111976703</t>
+    <t>by: Arkadiano ID: 111976703</t>
+  </si>
+  <si>
+    <t>Fields marked in green</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> indicate the additiona</t>
+  </si>
+  <si>
+    <t>l value that the furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will give after buffs. However,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it is worth noting that</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the additional buffs are</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> slightly weaker than this original value</t>
+  </si>
+  <si>
+    <t>For example,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Athelia in its basic stats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from one +3 furniture </t>
+  </si>
+  <si>
+    <t>can draw 3.2% ATK,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the same bonus to ATK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> after additional buffs is only 2.4%.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -641,6 +674,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,24 +1004,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:G148"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118:J119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1145,7 +1182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1168,7 +1205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1191,7 +1228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1237,7 +1274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1260,7 +1297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
@@ -1283,7 +1320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
@@ -1306,7 +1343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -1329,7 +1366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -1352,7 +1389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1375,7 +1412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -1421,7 +1458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -1444,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>46</v>
       </c>
@@ -1467,7 +1504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -1490,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
@@ -1513,7 +1550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -1536,7 +1573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
@@ -1559,7 +1596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
@@ -1582,7 +1619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
@@ -1605,7 +1642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
@@ -1628,7 +1665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>54</v>
       </c>
@@ -1651,7 +1688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>55</v>
       </c>
@@ -1674,7 +1711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
@@ -1697,7 +1734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>56</v>
       </c>
@@ -1720,7 +1757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>58</v>
       </c>
@@ -1743,7 +1780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>59</v>
       </c>
@@ -1766,7 +1803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>60</v>
       </c>
@@ -1789,7 +1826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>61</v>
       </c>
@@ -1812,7 +1849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>62</v>
       </c>
@@ -1835,7 +1872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>63</v>
       </c>
@@ -1858,7 +1895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>64</v>
       </c>
@@ -1881,7 +1918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>65</v>
       </c>
@@ -1904,7 +1941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
@@ -1927,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
@@ -1950,7 +1987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>68</v>
       </c>
@@ -1973,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>69</v>
       </c>
@@ -1996,7 +2033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>70</v>
       </c>
@@ -2019,7 +2056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>71</v>
       </c>
@@ -2042,7 +2079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>72</v>
       </c>
@@ -2065,7 +2102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>73</v>
       </c>
@@ -2088,7 +2125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>74</v>
       </c>
@@ -2111,7 +2148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>75</v>
       </c>
@@ -2134,7 +2171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>76</v>
       </c>
@@ -2157,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>77</v>
       </c>
@@ -2180,7 +2217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>78</v>
       </c>
@@ -2203,7 +2240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>79</v>
       </c>
@@ -2226,7 +2263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>80</v>
       </c>
@@ -2249,7 +2286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>81</v>
       </c>
@@ -2272,7 +2309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>82</v>
       </c>
@@ -2295,7 +2332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>83</v>
       </c>
@@ -2318,7 +2355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>84</v>
       </c>
@@ -2341,7 +2378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>85</v>
       </c>
@@ -2364,7 +2401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>86</v>
       </c>
@@ -2387,7 +2424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>87</v>
       </c>
@@ -2410,7 +2447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>88</v>
       </c>
@@ -2433,7 +2470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>90</v>
       </c>
@@ -2456,7 +2493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>91</v>
       </c>
@@ -2479,7 +2516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>92</v>
       </c>
@@ -2502,7 +2539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>93</v>
       </c>
@@ -2525,7 +2562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>94</v>
       </c>
@@ -2548,7 +2585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>95</v>
       </c>
@@ -2571,7 +2608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>96</v>
       </c>
@@ -2594,7 +2631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>97</v>
       </c>
@@ -2617,7 +2654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>98</v>
       </c>
@@ -2640,7 +2677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>99</v>
       </c>
@@ -2663,7 +2700,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>100</v>
       </c>
@@ -2686,7 +2723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>101</v>
       </c>
@@ -2709,7 +2746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>102</v>
       </c>
@@ -2732,7 +2769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>103</v>
       </c>
@@ -2755,7 +2792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>104</v>
       </c>
@@ -2778,7 +2815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>105</v>
       </c>
@@ -2801,7 +2838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>106</v>
       </c>
@@ -2824,7 +2861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>107</v>
       </c>
@@ -2847,7 +2884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>108</v>
       </c>
@@ -2870,7 +2907,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>109</v>
       </c>
@@ -2893,7 +2930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>110</v>
       </c>
@@ -2916,7 +2953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>111</v>
       </c>
@@ -2939,7 +2976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>112</v>
       </c>
@@ -2962,7 +2999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>113</v>
       </c>
@@ -2985,7 +3022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>114</v>
       </c>
@@ -3008,7 +3045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>115</v>
       </c>
@@ -3031,7 +3068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>116</v>
       </c>
@@ -3054,7 +3091,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>117</v>
       </c>
@@ -3077,7 +3114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
         <v>118</v>
       </c>
@@ -3100,7 +3137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
         <v>119</v>
       </c>
@@ -3123,7 +3160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
         <v>120</v>
       </c>
@@ -3146,7 +3183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>121</v>
       </c>
@@ -3169,7 +3206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>122</v>
       </c>
@@ -3192,7 +3229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>123</v>
       </c>
@@ -3215,7 +3252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>124</v>
       </c>
@@ -3238,7 +3275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>125</v>
       </c>
@@ -3261,7 +3298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>126</v>
       </c>
@@ -3284,7 +3321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>127</v>
       </c>
@@ -3307,7 +3344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>128</v>
       </c>
@@ -3330,7 +3367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>129</v>
       </c>
@@ -3353,7 +3390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>130</v>
       </c>
@@ -3376,7 +3413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>131</v>
       </c>
@@ -3399,7 +3436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>132</v>
       </c>
@@ -3422,7 +3459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>133</v>
       </c>
@@ -3445,7 +3482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>134</v>
       </c>
@@ -3468,7 +3505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>135</v>
       </c>
@@ -3491,7 +3528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>136</v>
       </c>
@@ -3514,7 +3551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>137</v>
       </c>
@@ -3537,7 +3574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>138</v>
       </c>
@@ -3560,7 +3597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>139</v>
       </c>
@@ -3583,7 +3620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>140</v>
       </c>
@@ -3606,7 +3643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>141</v>
       </c>
@@ -3629,140 +3666,152 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" t="s">
+      <c r="B118" s="11"/>
+      <c r="C118" t="s">
+        <v>146</v>
+      </c>
+      <c r="D118" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" t="s">
+        <v>152</v>
+      </c>
+      <c r="F118" t="s">
+        <v>156</v>
+      </c>
+      <c r="G118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
+      <c r="B119" s="11"/>
+      <c r="C119" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" t="s">
+        <v>153</v>
+      </c>
+      <c r="F119" t="s">
+        <v>157</v>
+      </c>
+      <c r="G119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="B120" s="11"/>
+      <c r="C120" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" t="s">
+        <v>151</v>
+      </c>
+      <c r="E120" t="s">
+        <v>154</v>
+      </c>
+      <c r="F120" t="s">
+        <v>158</v>
+      </c>
+      <c r="G120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>155</v>
+      </c>
+      <c r="F121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>167</v>
-      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G22">
     <sortCondition ref="A9:A22"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>